--- a/medicine/Enfance/Simon_Boulerice/Simon_Boulerice.xlsx
+++ b/medicine/Enfance/Simon_Boulerice/Simon_Boulerice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Boulerice, né à Saint Rémi le 15 février 1982, est un comédien, dramaturge, metteur en scène, poète et romancier québécois, auteur de nombreux romans, pièces de théâtre  et ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la littérature au Cégep de Saint-Laurent et à l'Université du Québec à Montréal, puis l'interprétation théâtrale au Cégep Lionel-Groulx (promotion 2007).
-Il est l'auteur des pièces de théâtre Simon a toujours aimé danser (prix de la création Fringe 2007[1], solo de l'année LGBT 2007[2]), Qu'est-ce qui reste de Marie-Stella? (publiée chez Dramaturges Éditeurs 2009) et Martine à la plage (2010). Il a aussi publié un premier roman, Les Jérémiades, paru aux Éditions Sémaphore en 2009, ainsi qu'un recueil de poésie, Saigner des dents, lauréat du prix Piché 2009.
-Son deuxième roman, Javotte (2012)[3] est lauréat du Prix des lecteurs émergents de l'Abitibi-Témiscamingue (2013)[4].
+Il est l'auteur des pièces de théâtre Simon a toujours aimé danser (prix de la création Fringe 2007, solo de l'année LGBT 2007), Qu'est-ce qui reste de Marie-Stella? (publiée chez Dramaturges Éditeurs 2009) et Martine à la plage (2010). Il a aussi publié un premier roman, Les Jérémiades, paru aux Éditions Sémaphore en 2009, ainsi qu'un recueil de poésie, Saigner des dents, lauréat du prix Piché 2009.
+Son deuxième roman, Javotte (2012) est lauréat du Prix des lecteurs émergents de l'Abitibi-Témiscamingue (2013).
 En 2013, son roman jeunesse Jeanne Moreau a le sourire à l’envers fait partie de la sélection « The White Raves » 2014 de la Bibliothèque internationale pour la jeunesse, et est finaliste au Prix jeunesse des libraires du Québec.
-Son roman jeunesse Edgar Paillettes est lauréat du Prix jeunesse des libraires du Québec 2014[5].
-Florence et Léon est finaliste du Prix du Gouverneur général 2016[6] pour les illustrations de Delphie Côté-Lacroix, dans la catégorie littérature jeunesse de langue française - illustration.
-Figure emblématique du monde artistique québécois, Simon Boulerice a participé au premier salon de littérature jeunesse du Nord-Ouest américain, Litt. Jeunesse[7],[8], organisé à Seattle par l’association Made in France en 2021 et a fait l'objet d'un article dans le magazine trimestriel le Mag’ fr@ncophone[9].
-En septembre 2022, Boulercie est encensé par la critique pour le scénario de la série Chouchou, diffusée sur Noovo[10].
+Son roman jeunesse Edgar Paillettes est lauréat du Prix jeunesse des libraires du Québec 2014.
+Florence et Léon est finaliste du Prix du Gouverneur général 2016 pour les illustrations de Delphie Côté-Lacroix, dans la catégorie littérature jeunesse de langue française - illustration.
+Figure emblématique du monde artistique québécois, Simon Boulerice a participé au premier salon de littérature jeunesse du Nord-Ouest américain, Litt. Jeunesse organisé à Seattle par l’association Made in France en 2021 et a fait l'objet d'un article dans le magazine trimestriel le Mag’ fr@ncophone.
+En septembre 2022, Boulercie est encensé par la critique pour le scénario de la série Chouchou, diffusée sur Noovo.
 </t>
         </is>
       </c>
@@ -551,14 +565,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Les Jérémiades, Éditions Sémaphore, 2009
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Jérémiades, Éditions Sémaphore, 2009
 Javotte, Éditions Leméac, 2012 ; réédition, Éditions Leméac, coll. « Nomades » no 133, 2015
 Le Premier qui rira, Leméac, 2014
 Géolocaliser l'amour, Les Éditions de Ta Mère, 2016
-Pleurer au fond des mascottes, Éditions Québec Amérique, 2020
-Littérature d'enfance et de jeunesse
-Être un héros : des histoires de gars, Montréal, La Courte Échelle, 2011 (ouvrage collectif - La nouvelle de Boulerice s'intitule Ce que Mariah Carey a fait de moi)
+Pleurer au fond des mascottes, Éditions Québec Amérique, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Être un héros : des histoires de gars, Montréal, La Courte Échelle, 2011 (ouvrage collectif - La nouvelle de Boulerice s'intitule Ce que Mariah Carey a fait de moi)
 Nancy croit qu'on lui prépare une fête, Éditions Poètes de brousse, 2011
 Martine à la plage, bande-dessinée, La Courte Échelle, 2012
 Jeanne Moreau a le sourire à l'envers, roman jeunesse, Éditions Leméac, 2013
@@ -594,9 +647,43 @@
 La grève des câlins, album, ill. de Francis-William Rhéaume, Les Éditions de la Bagnole, 2020
 Au beau débarras: La flûte désenchantée, album, ill. de Lucie Crovatto, Éditions Québec Amérique, 2021
 Chercher et trouve avec Simon: À l'école, album, ill. d'Alice Lemelin, Éditions Victor et Anaïs, 2021
-Veiller sur les brigadiers scolaires, poésie jeunesse, La Courte Échelle, 2021
-Théâtre
-La Condition triviale, Réseau intercollégial des activités socioculturelles du Québec, 2005
+Veiller sur les brigadiers scolaires, poésie jeunesse, La Courte Échelle, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Condition triviale, Réseau intercollégial des activités socioculturelles du Québec, 2005
 Simon a toujours aimé danser, théâtre jeunesse, 2006
 Qu'est-ce qui reste de Marie-Stella ?, théâtre jeunesse, Dramaturges Éditeur, 2009
 Éric n'est pas beau, théâtre jeunesse, École des Loisirs, 2011
@@ -607,56 +694,160 @@
 Peroxyde, théâtre, Éditions Leméac, 2014
 Edgar Paillettes, théâtre jeunesse, Lansman éditeur, 2015 (version théâtrale du roman jeunesse éponyme)
 Tu dois avoir si froid, théâtre jeunesse, Lansman éditeur, 2017
-Ta maison brûle, Éditions de Ta Mère, 2019
-Poésie
-Poèmes du lendemain 18, Trois Rivières, Écrits des Forges, 2009 (en collaboration avec Valérie Forgues)
+Ta maison brûle, Éditions de Ta Mère, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Poèmes du lendemain 18, Trois Rivières, Écrits des Forges, 2009 (en collaboration avec Valérie Forgues)
 Nancy croit qu'on lui prépare une fête, Éditions Poètes de Brousse, 2011
 La Sueur des airs climatisés, Éditions Poètes de Brousse, 2013
-Les garçons courent plus vite, Éditions La Courte échelle, 2015
-Télévision
-Six degrés (2021)
+Les garçons courent plus vite, Éditions La Courte échelle, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Six degrés (2021)
 Géolocaliser l'amour (2022) (websérie)
 Chouchou (mini-série) (2022)
-Martine à la plage (2022) (websérie)
-Autres
-Procès-verbal : (les affaires en découlant), Éditions Poètes de brousse, 2017
+Martine à la plage (2022) (websérie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Boulerice</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procès-verbal : (les affaires en découlant), Éditions Poètes de brousse, 2017
 Moi aussi j'aime les hommes, Stanké, 2017 (en collaboration avec Alain Labonté)
-Campagne Écrire, ça libère ! par Amnistie internationale, 2021 [11]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Campagne Écrire, ça libère ! par Amnistie internationale, 2021 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Simon_Boulerice</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Simon_Boulerice</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix jeunesse des libraires du Québec 2014[5] pour Edgar Paillettes
-Finaliste du Prix du Gouverneur général 2016[6] pour les illustrations de Delphie Côté-Lacroix de son ouvrage Florence et Léon, dans la catégorie littérature jeunesse de langue française - illustration.
-En 2017, finaliste du Prix Espiègle[12] et du Prix Alvine-Bélisle, ainsi que gagnant du Combat aux mots pour L'enfant mascara[13].
-Président d'honneur du 39e Salon du livre de l'Outaouais en 2018[14].
-Finaliste du Prix du Gouverneur général 2019 en tant qu'auteur pour Le pelleteur de nuages (illustré par Josée Bisaillon), dans la catégorie Littérature jeunesse de langue française – livres illustrés[15].
-prix des gémeaux 2023: meilleur texte: série dramatique - Chouchou[16]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix jeunesse des libraires du Québec 2014 pour Edgar Paillettes
+Finaliste du Prix du Gouverneur général 2016 pour les illustrations de Delphie Côté-Lacroix de son ouvrage Florence et Léon, dans la catégorie littérature jeunesse de langue française - illustration.
+En 2017, finaliste du Prix Espiègle et du Prix Alvine-Bélisle, ainsi que gagnant du Combat aux mots pour L'enfant mascara.
+Président d'honneur du 39e Salon du livre de l'Outaouais en 2018.
+Finaliste du Prix du Gouverneur général 2019 en tant qu'auteur pour Le pelleteur de nuages (illustré par Josée Bisaillon), dans la catégorie Littérature jeunesse de langue française – livres illustrés.
+prix des gémeaux 2023: meilleur texte: série dramatique - Chouchou</t>
         </is>
       </c>
     </row>
